--- a/Stats (R)/datasets/communities/complexity.xlsx
+++ b/Stats (R)/datasets/communities/complexity.xlsx
@@ -377,10 +377,13 @@
   <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -425,7 +428,7 @@
         <v>174</v>
       </c>
       <c r="G2">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -448,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>711</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -471,7 +474,7 @@
         <v>97</v>
       </c>
       <c r="G4">
-        <v>213</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -494,7 +497,7 @@
         <v>62</v>
       </c>
       <c r="G5">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -517,7 +520,7 @@
         <v>90</v>
       </c>
       <c r="G6">
-        <v>357</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -540,7 +543,7 @@
         <v>146</v>
       </c>
       <c r="G7">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -563,7 +566,7 @@
         <v>67</v>
       </c>
       <c r="G8">
-        <v>333</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,7 +589,7 @@
         <v>153</v>
       </c>
       <c r="G9">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -609,7 +612,7 @@
         <v>48</v>
       </c>
       <c r="G10">
-        <v>715</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,7 +635,7 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>212</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,7 +658,7 @@
         <v>73</v>
       </c>
       <c r="G12">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -678,7 +681,7 @@
         <v>68</v>
       </c>
       <c r="G13">
-        <v>353</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -701,7 +704,7 @@
         <v>123</v>
       </c>
       <c r="G14">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +727,7 @@
         <v>77</v>
       </c>
       <c r="G15">
-        <v>334</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -747,7 +750,7 @@
         <v>158</v>
       </c>
       <c r="G16">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -770,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="G17">
-        <v>715</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -793,7 +796,7 @@
         <v>137</v>
       </c>
       <c r="G18">
-        <v>214</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,7 +819,7 @@
         <v>67</v>
       </c>
       <c r="G19">
-        <v>145</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,7 +842,7 @@
         <v>117</v>
       </c>
       <c r="G20">
-        <v>353</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -862,7 +865,7 @@
         <v>147</v>
       </c>
       <c r="G21">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -885,7 +888,7 @@
         <v>86</v>
       </c>
       <c r="G22">
-        <v>334</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,7 +911,7 @@
         <v>174</v>
       </c>
       <c r="G23">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="G24">
-        <v>716</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,7 +957,7 @@
         <v>136</v>
       </c>
       <c r="G25">
-        <v>214</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,7 +980,7 @@
         <v>55</v>
       </c>
       <c r="G26">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,7 +1003,7 @@
         <v>101</v>
       </c>
       <c r="G27">
-        <v>357</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1023,7 +1026,7 @@
         <v>116</v>
       </c>
       <c r="G28">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,7 +1049,7 @@
         <v>82</v>
       </c>
       <c r="G29">
-        <v>333</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,7 +1072,7 @@
         <v>140</v>
       </c>
       <c r="G30">
-        <v>188</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1092,7 +1095,7 @@
         <v>24</v>
       </c>
       <c r="G31">
-        <v>716</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,7 +1118,7 @@
         <v>131</v>
       </c>
       <c r="G32">
-        <v>214</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1138,7 +1141,7 @@
         <v>66</v>
       </c>
       <c r="G33">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1161,7 +1164,7 @@
         <v>106</v>
       </c>
       <c r="G34">
-        <v>355</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1184,7 +1187,7 @@
         <v>165</v>
       </c>
       <c r="G35">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1207,7 +1210,7 @@
         <v>74</v>
       </c>
       <c r="G36">
-        <v>336</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1230,7 +1233,7 @@
         <v>178</v>
       </c>
       <c r="G37">
-        <v>184</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1253,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="G38">
-        <v>715</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1276,7 +1279,7 @@
         <v>143</v>
       </c>
       <c r="G39">
-        <v>214</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1299,7 +1302,7 @@
         <v>93</v>
       </c>
       <c r="G40">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1322,7 +1325,7 @@
         <v>130</v>
       </c>
       <c r="G41">
-        <v>359</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1345,7 +1348,7 @@
         <v>172</v>
       </c>
       <c r="G42">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1368,7 +1371,7 @@
         <v>78</v>
       </c>
       <c r="G43">
-        <v>336</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1391,7 +1394,7 @@
         <v>162</v>
       </c>
       <c r="G44">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1414,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="G45">
-        <v>715</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1437,7 +1440,7 @@
         <v>133</v>
       </c>
       <c r="G46">
-        <v>214</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1460,7 +1463,7 @@
         <v>96</v>
       </c>
       <c r="G47">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1483,7 +1486,7 @@
         <v>123</v>
       </c>
       <c r="G48">
-        <v>359</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1506,7 +1509,7 @@
         <v>166</v>
       </c>
       <c r="G49">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1529,7 +1532,7 @@
         <v>69</v>
       </c>
       <c r="G50">
-        <v>336</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1552,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="G51">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1575,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="G52">
-        <v>715</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1598,7 +1601,7 @@
         <v>141</v>
       </c>
       <c r="G53">
-        <v>213</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1621,7 +1624,7 @@
         <v>90</v>
       </c>
       <c r="G54">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1644,7 +1647,7 @@
         <v>109</v>
       </c>
       <c r="G55">
-        <v>359</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1667,7 +1670,7 @@
         <v>169</v>
       </c>
       <c r="G56">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1690,7 +1693,7 @@
         <v>95</v>
       </c>
       <c r="G57">
-        <v>336</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1713,7 +1716,7 @@
         <v>151</v>
       </c>
       <c r="G58">
-        <v>186</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1736,7 +1739,7 @@
         <v>8</v>
       </c>
       <c r="G59">
-        <v>715</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1759,7 +1762,7 @@
         <v>131</v>
       </c>
       <c r="G60">
-        <v>214</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1782,7 +1785,7 @@
         <v>89</v>
       </c>
       <c r="G61">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1805,7 +1808,7 @@
         <v>107</v>
       </c>
       <c r="G62">
-        <v>360</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1828,7 +1831,7 @@
         <v>174</v>
       </c>
       <c r="G63">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1851,7 +1854,7 @@
         <v>95</v>
       </c>
       <c r="G64">
-        <v>336</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1874,7 +1877,7 @@
         <v>170</v>
       </c>
       <c r="G65">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1897,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="G66">
-        <v>715</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -1920,7 +1923,7 @@
         <v>138</v>
       </c>
       <c r="G67">
-        <v>214</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1943,7 +1946,7 @@
         <v>96</v>
       </c>
       <c r="G68">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -1966,7 +1969,7 @@
         <v>96</v>
       </c>
       <c r="G69">
-        <v>360</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -1989,7 +1992,7 @@
         <v>165</v>
       </c>
       <c r="G70">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2012,7 +2015,7 @@
         <v>71</v>
       </c>
       <c r="G71">
-        <v>335</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2035,7 +2038,7 @@
         <v>171</v>
       </c>
       <c r="G72">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2058,7 +2061,7 @@
         <v>34</v>
       </c>
       <c r="G73">
-        <v>715</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2081,7 +2084,7 @@
         <v>141</v>
       </c>
       <c r="G74">
-        <v>214</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2104,7 +2107,7 @@
         <v>86</v>
       </c>
       <c r="G75">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2127,7 +2130,7 @@
         <v>111</v>
       </c>
       <c r="G76">
-        <v>358</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2150,7 +2153,7 @@
         <v>162</v>
       </c>
       <c r="G77">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2173,7 +2176,7 @@
         <v>69</v>
       </c>
       <c r="G78">
-        <v>333</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2196,7 +2199,7 @@
         <v>178</v>
       </c>
       <c r="G79">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2219,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="G80">
-        <v>715</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2242,7 +2245,7 @@
         <v>141</v>
       </c>
       <c r="G81">
-        <v>214</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2265,7 +2268,7 @@
         <v>87</v>
       </c>
       <c r="G82">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2288,7 +2291,7 @@
         <v>126</v>
       </c>
       <c r="G83">
-        <v>357</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2311,7 +2314,7 @@
         <v>166</v>
       </c>
       <c r="G84">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2334,7 +2337,7 @@
         <v>71</v>
       </c>
       <c r="G85">
-        <v>336</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2357,7 +2360,7 @@
         <v>15</v>
       </c>
       <c r="G86">
-        <v>716</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2380,7 +2383,7 @@
         <v>129</v>
       </c>
       <c r="G87">
-        <v>214</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2403,7 +2406,7 @@
         <v>83</v>
       </c>
       <c r="G88">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2426,7 +2429,7 @@
         <v>123</v>
       </c>
       <c r="G89">
-        <v>356</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2449,7 +2452,7 @@
         <v>166</v>
       </c>
       <c r="G90">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2472,7 +2475,7 @@
         <v>73</v>
       </c>
       <c r="G91">
-        <v>336</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2495,7 +2498,7 @@
         <v>14</v>
       </c>
       <c r="G92">
-        <v>715</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2518,7 +2521,7 @@
         <v>124</v>
       </c>
       <c r="G93">
-        <v>214</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2541,7 +2544,7 @@
         <v>82</v>
       </c>
       <c r="G94">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2564,7 +2567,7 @@
         <v>127</v>
       </c>
       <c r="G95">
-        <v>356</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2587,7 +2590,7 @@
         <v>164</v>
       </c>
       <c r="G96">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2610,7 +2613,7 @@
         <v>86</v>
       </c>
       <c r="G97">
-        <v>335</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2633,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="G98">
-        <v>716</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2656,7 +2659,7 @@
         <v>134</v>
       </c>
       <c r="G99">
-        <v>214</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2679,7 +2682,7 @@
         <v>87</v>
       </c>
       <c r="G100">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2702,7 +2705,7 @@
         <v>107</v>
       </c>
       <c r="G101">
-        <v>356</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2725,7 +2728,7 @@
         <v>158</v>
       </c>
       <c r="G102">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2748,7 +2751,7 @@
         <v>74</v>
       </c>
       <c r="G103">
-        <v>331</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2771,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="G104">
-        <v>715</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,7 +2797,7 @@
         <v>139</v>
       </c>
       <c r="G105">
-        <v>214</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2817,7 +2820,7 @@
         <v>86</v>
       </c>
       <c r="G106">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -2840,7 +2843,7 @@
         <v>146</v>
       </c>
       <c r="G107">
-        <v>361</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -2863,7 +2866,7 @@
         <v>168</v>
       </c>
       <c r="G108">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -2886,7 +2889,7 @@
         <v>79</v>
       </c>
       <c r="G109">
-        <v>336</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -2909,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="G110">
-        <v>716</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -2932,7 +2935,7 @@
         <v>126</v>
       </c>
       <c r="G111">
-        <v>214</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -2955,7 +2958,7 @@
         <v>90</v>
       </c>
       <c r="G112">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -2978,7 +2981,7 @@
         <v>112</v>
       </c>
       <c r="G113">
-        <v>361</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3001,7 +3004,7 @@
         <v>164</v>
       </c>
       <c r="G114">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3024,7 +3027,7 @@
         <v>93</v>
       </c>
       <c r="G115">
-        <v>336</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3047,7 +3050,7 @@
         <v>92</v>
       </c>
       <c r="G116">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3070,7 +3073,7 @@
         <v>138</v>
       </c>
       <c r="G117">
-        <v>361</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3093,7 +3096,7 @@
         <v>163</v>
       </c>
       <c r="G118">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3116,7 +3119,7 @@
         <v>98</v>
       </c>
       <c r="G119">
-        <v>337</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3139,7 +3142,7 @@
         <v>83</v>
       </c>
       <c r="G120">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3162,7 +3165,7 @@
         <v>101</v>
       </c>
       <c r="G121">
-        <v>360</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3185,7 +3188,7 @@
         <v>173</v>
       </c>
       <c r="G122">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3208,7 +3211,7 @@
         <v>57</v>
       </c>
       <c r="G123">
-        <v>336</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3231,7 +3234,7 @@
         <v>89</v>
       </c>
       <c r="G124">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3254,7 +3257,7 @@
         <v>128</v>
       </c>
       <c r="G125">
-        <v>361</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3277,7 +3280,7 @@
         <v>154</v>
       </c>
       <c r="G126">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3300,7 +3303,7 @@
         <v>71</v>
       </c>
       <c r="G127">
-        <v>332</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3323,7 +3326,7 @@
         <v>103</v>
       </c>
       <c r="G128">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3346,7 +3349,7 @@
         <v>101</v>
       </c>
       <c r="G129">
-        <v>342</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3369,7 +3372,7 @@
         <v>96</v>
       </c>
       <c r="G130">
-        <v>213</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3392,7 +3395,7 @@
         <v>55</v>
       </c>
       <c r="G131">
-        <v>146</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3415,7 +3418,7 @@
         <v>109</v>
       </c>
       <c r="G132">
-        <v>358</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3438,7 +3441,7 @@
         <v>150</v>
       </c>
       <c r="G133">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3461,7 +3464,7 @@
         <v>26</v>
       </c>
       <c r="G134">
-        <v>328</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3484,7 +3487,7 @@
         <v>107</v>
       </c>
       <c r="G135">
-        <v>184</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3507,7 +3510,7 @@
         <v>88</v>
       </c>
       <c r="G136">
-        <v>445</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3530,7 +3533,7 @@
         <v>124</v>
       </c>
       <c r="G137">
-        <v>214</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3553,7 +3556,7 @@
         <v>51</v>
       </c>
       <c r="G138">
-        <v>143</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3576,7 +3579,7 @@
         <v>116</v>
       </c>
       <c r="G139">
-        <v>357</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3599,7 +3602,7 @@
         <v>172</v>
       </c>
       <c r="G140">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3622,7 +3625,7 @@
         <v>91</v>
       </c>
       <c r="G141">
-        <v>335</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3645,7 +3648,7 @@
         <v>100</v>
       </c>
       <c r="G142">
-        <v>182</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3668,7 +3671,7 @@
         <v>91</v>
       </c>
       <c r="G143">
-        <v>396</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3691,7 +3694,7 @@
         <v>96</v>
       </c>
       <c r="G144">
-        <v>213</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3714,7 +3717,7 @@
         <v>87</v>
       </c>
       <c r="G145">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3737,7 +3740,7 @@
         <v>140</v>
       </c>
       <c r="G146">
-        <v>360</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3760,7 +3763,7 @@
         <v>169</v>
       </c>
       <c r="G147">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3783,7 +3786,7 @@
         <v>84</v>
       </c>
       <c r="G148">
-        <v>335</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -3806,7 +3809,7 @@
         <v>91</v>
       </c>
       <c r="G149">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -3829,7 +3832,7 @@
         <v>139</v>
       </c>
       <c r="G150">
-        <v>360</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -3852,7 +3855,7 @@
         <v>170</v>
       </c>
       <c r="G151">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -3875,7 +3878,7 @@
         <v>87</v>
       </c>
       <c r="G152">
-        <v>336</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -3898,7 +3901,7 @@
         <v>92</v>
       </c>
       <c r="G153">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -3921,7 +3924,7 @@
         <v>108</v>
       </c>
       <c r="G154">
-        <v>360</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -3944,7 +3947,7 @@
         <v>174</v>
       </c>
       <c r="G155">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -3967,7 +3970,7 @@
         <v>92</v>
       </c>
       <c r="G156">
-        <v>336</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -3990,7 +3993,7 @@
         <v>86</v>
       </c>
       <c r="G157">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4013,7 +4016,7 @@
         <v>123</v>
       </c>
       <c r="G158">
-        <v>360</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4036,7 +4039,7 @@
         <v>168</v>
       </c>
       <c r="G159">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4059,7 +4062,7 @@
         <v>71</v>
       </c>
       <c r="G160">
-        <v>334</v>
+        <v>141</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4082,7 +4085,7 @@
         <v>89</v>
       </c>
       <c r="G161">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4105,7 +4108,7 @@
         <v>125</v>
       </c>
       <c r="G162">
-        <v>358</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4128,7 +4131,7 @@
         <v>160</v>
       </c>
       <c r="G163">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4151,7 +4154,7 @@
         <v>68</v>
       </c>
       <c r="G164">
-        <v>333</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,7 +4177,7 @@
         <v>92</v>
       </c>
       <c r="G165">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4197,7 +4200,7 @@
         <v>134</v>
       </c>
       <c r="G166">
-        <v>359</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4220,7 +4223,7 @@
         <v>162</v>
       </c>
       <c r="G167">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4243,7 +4246,7 @@
         <v>68</v>
       </c>
       <c r="G168">
-        <v>333</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4266,7 +4269,7 @@
         <v>93</v>
       </c>
       <c r="G169">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4289,7 +4292,7 @@
         <v>121</v>
       </c>
       <c r="G170">
-        <v>358</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4312,7 +4315,7 @@
         <v>163</v>
       </c>
       <c r="G171">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4335,7 +4338,7 @@
         <v>83</v>
       </c>
       <c r="G172">
-        <v>334</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4358,7 +4361,7 @@
         <v>85</v>
       </c>
       <c r="G173">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -4381,7 +4384,7 @@
         <v>118</v>
       </c>
       <c r="G174">
-        <v>358</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -4404,7 +4407,7 @@
         <v>167</v>
       </c>
       <c r="G175">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4427,7 +4430,7 @@
         <v>81</v>
       </c>
       <c r="G176">
-        <v>334</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4450,7 +4453,7 @@
         <v>87</v>
       </c>
       <c r="G177">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4473,7 +4476,7 @@
         <v>123</v>
       </c>
       <c r="G178">
-        <v>361</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4496,7 +4499,7 @@
         <v>167</v>
       </c>
       <c r="G179">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4519,7 +4522,7 @@
         <v>78</v>
       </c>
       <c r="G180">
-        <v>335</v>
+        <v>137</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4542,7 +4545,7 @@
         <v>89</v>
       </c>
       <c r="G181">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4565,7 +4568,7 @@
         <v>93</v>
       </c>
       <c r="G182">
-        <v>361</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4588,7 +4591,7 @@
         <v>164</v>
       </c>
       <c r="G183">
-        <v>131</v>
+        <v>154</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4611,7 +4614,7 @@
         <v>96</v>
       </c>
       <c r="G184">
-        <v>336</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4634,7 +4637,7 @@
         <v>88</v>
       </c>
       <c r="G185">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4657,7 +4660,7 @@
         <v>123</v>
       </c>
       <c r="G186">
-        <v>361</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -4680,7 +4683,7 @@
         <v>165</v>
       </c>
       <c r="G187">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -4703,7 +4706,7 @@
         <v>89</v>
       </c>
       <c r="G188">
-        <v>336</v>
+        <v>134</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4726,7 +4729,7 @@
         <v>85</v>
       </c>
       <c r="G189">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -4749,7 +4752,7 @@
         <v>120</v>
       </c>
       <c r="G190">
-        <v>361</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
